--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitHub\Discord-Community-Server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED330B60-7AC3-4D84-853B-7F9EBB5EEB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5A502-F97F-43A4-983A-72E6474DDF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="011424" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="032524" sheetId="6" r:id="rId6"/>
     <sheet name="061624" sheetId="7" r:id="rId7"/>
     <sheet name="092824" sheetId="8" r:id="rId8"/>
-    <sheet name="Current" sheetId="9" r:id="rId9"/>
+    <sheet name="101224" sheetId="10" r:id="rId9"/>
+    <sheet name="121124" sheetId="11" r:id="rId10"/>
+    <sheet name="Current" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9917" uniqueCount="82">
   <si>
     <t>Role</t>
   </si>
@@ -287,6 +289,9 @@
   </si>
   <si>
     <t>Once Human</t>
+  </si>
+  <si>
+    <t>Marvel Rivals</t>
   </si>
 </sst>
 </file>
@@ -3373,6 +3378,5732 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5FAF0A-9737-430C-A6B2-DA85187307FE}">
+  <dimension ref="A1:BC19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F1713-A33C-4FB0-B594-C1CF54C4A170}">
+  <dimension ref="A1:BC19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D2D01-9ED2-41C3-8A1B-D320F1ABEC85}">
   <dimension ref="A1:BC19"/>
@@ -23123,10 +28854,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F1713-A33C-4FB0-B594-C1CF54C4A170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AEA70C-3694-4301-8D60-BC16226B7EC0}">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
